--- a/robo_roach_v1.0_BOM.xlsx
+++ b/robo_roach_v1.0_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martin.susanto\Project\robo-roach-v1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE99883-96F2-4AA4-B905-95059D45E891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F28992E-638B-4ACE-AC83-8673DC51DC13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-330" windowWidth="29040" windowHeight="17520" xr2:uid="{2C2DFA72-C6C0-4256-9A57-A6EB0565CC86}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="robo-roach-v1 0" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'robo-roach-v1 0'!$A$1:$H$24</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'robo-roach-v1 0'!$A$1:$H$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="68">
   <si>
     <t>Id</t>
   </si>
@@ -61,9 +61,6 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>Supplier and ref</t>
-  </si>
-  <si>
     <t>Column1</t>
   </si>
   <si>
@@ -109,39 +106,12 @@
     <t>0.1u</t>
   </si>
   <si>
-    <t>SW1</t>
-  </si>
-  <si>
-    <t>ANT11SECQE</t>
-  </si>
-  <si>
-    <t>ANT11SF1CQE</t>
-  </si>
-  <si>
     <t>C2,C1</t>
   </si>
   <si>
     <t>4.3p</t>
   </si>
   <si>
-    <t>J1</t>
-  </si>
-  <si>
-    <t>SWR204-NRTN-D03-ST-GA</t>
-  </si>
-  <si>
-    <t>Prog</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>CP_Radial_D5.0mm_P2.00mm</t>
-  </si>
-  <si>
-    <t>47u</t>
-  </si>
-  <si>
     <t>Q2,Q3,Q1</t>
   </si>
   <si>
@@ -248,6 +218,39 @@
   </si>
   <si>
     <t>1008</t>
+  </si>
+  <si>
+    <t>JLCPCB Part #</t>
+  </si>
+  <si>
+    <t>C2297</t>
+  </si>
+  <si>
+    <t>C614830</t>
+  </si>
+  <si>
+    <t>C3681297</t>
+  </si>
+  <si>
+    <t>C6881375</t>
+  </si>
+  <si>
+    <t>C408974</t>
+  </si>
+  <si>
+    <t>C29780875</t>
+  </si>
+  <si>
+    <t>C202311</t>
+  </si>
+  <si>
+    <t>C516175</t>
+  </si>
+  <si>
+    <t>C59526</t>
+  </si>
+  <si>
+    <t>C92925</t>
   </si>
 </sst>
 </file>
@@ -340,15 +343,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9C87463E-7A6A-45FF-9592-54822E62D1EF}" name="robo_roach_v1_0" displayName="robo_roach_v1_0" ref="A1:H24" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:H24" xr:uid="{9C87463E-7A6A-45FF-9592-54822E62D1EF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9C87463E-7A6A-45FF-9592-54822E62D1EF}" name="robo_roach_v1_0" displayName="robo_roach_v1_0" ref="A1:H21" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:H21" xr:uid="{9C87463E-7A6A-45FF-9592-54822E62D1EF}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{7F41BC8D-908E-4F88-A5BB-387F09E8C088}" uniqueName="1" name="Id" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{D71D6D5C-8372-4828-A633-76908DE8B7CA}" uniqueName="2" name="Designator" queryTableFieldId="2" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{13B9AC10-2777-4DD9-9893-083023B0B05B}" uniqueName="3" name="Footprint" queryTableFieldId="3" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{0DEE63BD-AF69-4B26-ACDA-31BC91ADB0F5}" uniqueName="4" name="Quantity" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{6F65A048-FA80-4BD3-AD5E-969D6BECD139}" uniqueName="5" name="Comment" queryTableFieldId="5" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{7F420CA6-C37B-4AA8-BF96-D7373B531105}" uniqueName="6" name="Supplier and ref" queryTableFieldId="6" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{7F420CA6-C37B-4AA8-BF96-D7373B531105}" uniqueName="6" name="JLCPCB Part #" queryTableFieldId="6" dataDxfId="2"/>
     <tableColumn id="7" xr3:uid="{E41D575A-8C1E-433C-9BB9-313D0FB23C58}" uniqueName="7" name="Column1" queryTableFieldId="7" dataDxfId="1"/>
     <tableColumn id="8" xr3:uid="{AF832210-9D80-476F-B8F9-9096ED3CAFB4}" uniqueName="8" name="_1" queryTableFieldId="8" dataDxfId="0"/>
   </tableColumns>
@@ -673,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{067367DD-9408-4162-8EA9-F38A2D17771A}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,16 +708,16 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -722,25 +725,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D2">
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -748,25 +751,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -774,25 +777,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D4">
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -800,25 +803,25 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D5">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -826,25 +829,25 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -852,467 +855,389 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D7">
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="G8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="G9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>27</v>
-      </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="G11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12" t="s">
-        <v>33</v>
-      </c>
       <c r="F12" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="G12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="F13" t="s">
         <v>64</v>
       </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" t="s">
-        <v>9</v>
-      </c>
       <c r="G13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>38</v>
-      </c>
       <c r="F14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F17" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="G17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="G18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F19" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="G19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F21" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="G21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>30</v>
-      </c>
-      <c r="B22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
-        <v>58</v>
-      </c>
-      <c r="F22" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" t="s">
-        <v>9</v>
-      </c>
-      <c r="H22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>31</v>
-      </c>
-      <c r="B23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
-        <v>60</v>
-      </c>
-      <c r="F23" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" t="s">
-        <v>9</v>
-      </c>
-      <c r="H23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>34</v>
-      </c>
-      <c r="B24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24" t="s">
-        <v>62</v>
-      </c>
-      <c r="F24" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
